--- a/data/pca/factorExposure/factorExposure_2018-12-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-12-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.07956339957839666</v>
+        <v>-0.05292087356099177</v>
       </c>
       <c r="C2">
-        <v>0.04849395005099558</v>
+        <v>0.02724084621716667</v>
       </c>
       <c r="D2">
-        <v>-0.06742089973076312</v>
+        <v>0.02054684600890444</v>
       </c>
       <c r="E2">
-        <v>-0.002502673800380464</v>
+        <v>-0.02959119949183497</v>
       </c>
       <c r="F2">
-        <v>0.1159359992753053</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.006466975140656328</v>
+      </c>
+      <c r="G2">
+        <v>-0.1105003620824903</v>
+      </c>
+      <c r="H2">
+        <v>0.07456686744281085</v>
+      </c>
+      <c r="I2">
+        <v>-0.06046723139214118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.1763895594401707</v>
+        <v>-0.1281228857131635</v>
       </c>
       <c r="C3">
-        <v>-0.04090748166278797</v>
+        <v>0.07092995583537405</v>
       </c>
       <c r="D3">
-        <v>-0.1363212369600957</v>
+        <v>0.007960899891755845</v>
       </c>
       <c r="E3">
-        <v>-0.0606103491776241</v>
+        <v>0.02243785959678976</v>
       </c>
       <c r="F3">
-        <v>0.3693843504903241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.0259196817301885</v>
+      </c>
+      <c r="G3">
+        <v>-0.3627861129641674</v>
+      </c>
+      <c r="H3">
+        <v>0.275463265496293</v>
+      </c>
+      <c r="I3">
+        <v>-0.03822502447705566</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.06855566040974297</v>
+        <v>-0.05616877779326993</v>
       </c>
       <c r="C4">
-        <v>0.01344294910787518</v>
+        <v>0.04282149815693732</v>
       </c>
       <c r="D4">
-        <v>-0.05662887463397253</v>
+        <v>-0.009807726173662368</v>
       </c>
       <c r="E4">
-        <v>-0.05083786654789696</v>
+        <v>-0.03198666622214126</v>
       </c>
       <c r="F4">
-        <v>0.05926051287000973</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.03125310713495031</v>
+      </c>
+      <c r="G4">
+        <v>-0.06975907287208946</v>
+      </c>
+      <c r="H4">
+        <v>0.03067887253915483</v>
+      </c>
+      <c r="I4">
+        <v>-0.04308716447296607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.002657152137566122</v>
+        <v>-0.02805336066067319</v>
       </c>
       <c r="C6">
-        <v>-0.0008387057099867566</v>
+        <v>0.01769782889873214</v>
       </c>
       <c r="D6">
-        <v>0.0003105177898136056</v>
+        <v>-0.001600432551106839</v>
       </c>
       <c r="E6">
-        <v>0.003883929555610034</v>
+        <v>-0.005584006056121817</v>
       </c>
       <c r="F6">
-        <v>0.0009332287019385336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.0158280130564714</v>
+      </c>
+      <c r="G6">
+        <v>-0.01572024877939134</v>
+      </c>
+      <c r="H6">
+        <v>-0.02768093847717306</v>
+      </c>
+      <c r="I6">
+        <v>0.005974985731640193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.03574303369115175</v>
+        <v>-0.0303911883307981</v>
       </c>
       <c r="C7">
-        <v>0.01619271573574759</v>
+        <v>0.01653290847767392</v>
       </c>
       <c r="D7">
-        <v>-0.04221036800277632</v>
+        <v>-0.03303483155095649</v>
       </c>
       <c r="E7">
-        <v>-0.007252863503993749</v>
+        <v>-0.01966548583565497</v>
       </c>
       <c r="F7">
-        <v>0.08166660427474016</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.0155212767998662</v>
+      </c>
+      <c r="G7">
+        <v>-0.05176774163389435</v>
+      </c>
+      <c r="H7">
+        <v>0.04660982446880737</v>
+      </c>
+      <c r="I7">
+        <v>0.003494785637205822</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.03580594052350099</v>
+        <v>-0.01308894375148272</v>
       </c>
       <c r="C8">
-        <v>-0.0107985450568706</v>
+        <v>0.04192528878956113</v>
       </c>
       <c r="D8">
-        <v>-0.04617950025499545</v>
+        <v>-0.007733160696632399</v>
       </c>
       <c r="E8">
-        <v>-0.04718134450033921</v>
+        <v>-0.010636745589897</v>
       </c>
       <c r="F8">
-        <v>0.07537934498112463</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.0078992791873541</v>
+      </c>
+      <c r="G8">
+        <v>-0.06798381837661802</v>
+      </c>
+      <c r="H8">
+        <v>0.05596439992688751</v>
+      </c>
+      <c r="I8">
+        <v>-0.03160562070293779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.05490541805014734</v>
+        <v>-0.04654564423153237</v>
       </c>
       <c r="C9">
-        <v>0.01810034662176267</v>
+        <v>0.03521361741929654</v>
       </c>
       <c r="D9">
-        <v>-0.04225881862637216</v>
+        <v>-0.01317578057675888</v>
       </c>
       <c r="E9">
-        <v>-0.06101177997834603</v>
+        <v>-0.02803294583625287</v>
       </c>
       <c r="F9">
-        <v>0.05274691768825941</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01662284745781581</v>
+      </c>
+      <c r="G9">
+        <v>-0.07535133624270908</v>
+      </c>
+      <c r="H9">
+        <v>0.03068846001253259</v>
+      </c>
+      <c r="I9">
+        <v>-0.04363808719290232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.04194761780803016</v>
+        <v>-0.06421033185610038</v>
       </c>
       <c r="C10">
-        <v>0.08030948450496503</v>
+        <v>-0.1566001446148916</v>
       </c>
       <c r="D10">
-        <v>0.1132088095742209</v>
+        <v>-0.003659192460952976</v>
       </c>
       <c r="E10">
-        <v>0.07865516975433219</v>
+        <v>0.02135003141873269</v>
       </c>
       <c r="F10">
-        <v>0.04833174783181077</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.05821223698473808</v>
+      </c>
+      <c r="G10">
+        <v>-0.04247047255690969</v>
+      </c>
+      <c r="H10">
+        <v>0.03522736351475455</v>
+      </c>
+      <c r="I10">
+        <v>-0.03730895156451812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.04784973753974237</v>
+        <v>-0.03989349845474977</v>
       </c>
       <c r="C11">
-        <v>-0.003266100132343505</v>
+        <v>0.03733804868187557</v>
       </c>
       <c r="D11">
-        <v>-0.02885840555102553</v>
+        <v>0.00859010120100386</v>
       </c>
       <c r="E11">
-        <v>-0.008359389920600698</v>
+        <v>-0.008326898841367843</v>
       </c>
       <c r="F11">
-        <v>0.0499937849677107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.003637593749948503</v>
+      </c>
+      <c r="G11">
+        <v>-0.03916867668699212</v>
+      </c>
+      <c r="H11">
+        <v>0.00187680598620041</v>
+      </c>
+      <c r="I11">
+        <v>-0.01674264179516656</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.03964200055018775</v>
+        <v>-0.03763094588643159</v>
       </c>
       <c r="C12">
-        <v>-0.002980464771013294</v>
+        <v>0.0348668275818244</v>
       </c>
       <c r="D12">
-        <v>-0.02457984984967144</v>
+        <v>-0.003588515792791992</v>
       </c>
       <c r="E12">
-        <v>-0.02740757205576566</v>
+        <v>-0.009604392979192284</v>
       </c>
       <c r="F12">
-        <v>0.04101321977285681</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01350565929346345</v>
+      </c>
+      <c r="G12">
+        <v>-0.01838522360267044</v>
+      </c>
+      <c r="H12">
+        <v>0.005401964052700158</v>
+      </c>
+      <c r="I12">
+        <v>-0.00746830109736208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.04476780098622522</v>
+        <v>-0.0356048487686477</v>
       </c>
       <c r="C13">
-        <v>0.009404914735216381</v>
+        <v>0.0203708259919061</v>
       </c>
       <c r="D13">
-        <v>-0.04733821439939483</v>
+        <v>0.01890915760886473</v>
       </c>
       <c r="E13">
-        <v>0.01121750198085181</v>
+        <v>-0.002013220847498538</v>
       </c>
       <c r="F13">
-        <v>0.107149625910944</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.02589146996829364</v>
+      </c>
+      <c r="G13">
+        <v>-0.09213445805551407</v>
+      </c>
+      <c r="H13">
+        <v>0.03772300105736028</v>
+      </c>
+      <c r="I13">
+        <v>-0.03308913797909113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.02515376877733571</v>
+        <v>-0.02040011326027908</v>
       </c>
       <c r="C14">
-        <v>0.0143475165415844</v>
+        <v>0.01797274187541923</v>
       </c>
       <c r="D14">
-        <v>-0.04355414811565027</v>
+        <v>-0.003683850736880594</v>
       </c>
       <c r="E14">
-        <v>-0.02097055382320349</v>
+        <v>-0.02579210244440855</v>
       </c>
       <c r="F14">
-        <v>0.03610629252061472</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.01245775469231019</v>
+      </c>
+      <c r="G14">
+        <v>-0.03790035132226838</v>
+      </c>
+      <c r="H14">
+        <v>0.06357727341469301</v>
+      </c>
+      <c r="I14">
+        <v>-0.01370931200928199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.03841810082217294</v>
+        <v>-0.03359799438797702</v>
       </c>
       <c r="C16">
-        <v>-0.002230808275923404</v>
+        <v>0.03442076600219485</v>
       </c>
       <c r="D16">
-        <v>-0.02668801625730225</v>
+        <v>0.003275069743697021</v>
       </c>
       <c r="E16">
-        <v>-0.01184829641822166</v>
+        <v>-0.01070671182463133</v>
       </c>
       <c r="F16">
-        <v>0.03678280277751872</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.004799052764730832</v>
+      </c>
+      <c r="G16">
+        <v>-0.03338828564927523</v>
+      </c>
+      <c r="H16">
+        <v>0.005112024572556686</v>
+      </c>
+      <c r="I16">
+        <v>-0.006436730813718716</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.05532930704116971</v>
+        <v>-0.04247889608672303</v>
       </c>
       <c r="C19">
-        <v>-0.01544766083136772</v>
+        <v>0.04052617700978802</v>
       </c>
       <c r="D19">
-        <v>-0.04171504269820432</v>
+        <v>0.008076753038895462</v>
       </c>
       <c r="E19">
-        <v>-0.00922065304465826</v>
+        <v>-0.008806102040275451</v>
       </c>
       <c r="F19">
-        <v>0.09031353753696311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.003642369432584668</v>
+      </c>
+      <c r="G19">
+        <v>-0.08725393468056747</v>
+      </c>
+      <c r="H19">
+        <v>0.05294785649952307</v>
+      </c>
+      <c r="I19">
+        <v>-0.01828221064677514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.01872685474993631</v>
+        <v>-0.01271637782058632</v>
       </c>
       <c r="C20">
-        <v>0.005452183049533179</v>
+        <v>0.01972866220567074</v>
       </c>
       <c r="D20">
-        <v>-0.04167928479877797</v>
+        <v>-0.002853592613142656</v>
       </c>
       <c r="E20">
-        <v>-0.03553028439795687</v>
+        <v>-0.01256165505317821</v>
       </c>
       <c r="F20">
-        <v>0.07251316702347529</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01163199274771027</v>
+      </c>
+      <c r="G20">
+        <v>-0.05972276441943894</v>
+      </c>
+      <c r="H20">
+        <v>0.06335787682059736</v>
+      </c>
+      <c r="I20">
+        <v>-0.004369459212580515</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.01956788851515403</v>
+        <v>-0.0266585727775203</v>
       </c>
       <c r="C21">
-        <v>-0.01183546681293807</v>
+        <v>0.02367386413358083</v>
       </c>
       <c r="D21">
-        <v>-0.03520090174504653</v>
+        <v>-0.009236384169978112</v>
       </c>
       <c r="E21">
-        <v>-0.007882808622895362</v>
+        <v>-0.005120508933891929</v>
       </c>
       <c r="F21">
-        <v>0.08762894035323432</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.002342404338497704</v>
+      </c>
+      <c r="G21">
+        <v>-0.06677302801852941</v>
+      </c>
+      <c r="H21">
+        <v>0.02866640982755114</v>
+      </c>
+      <c r="I21">
+        <v>-0.05235005630532453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.03656144001242369</v>
+        <v>-0.03146146174466671</v>
       </c>
       <c r="C24">
-        <v>-0.00458869178471606</v>
+        <v>0.03158487957244945</v>
       </c>
       <c r="D24">
-        <v>-0.0250845636428287</v>
+        <v>0.00215409450645586</v>
       </c>
       <c r="E24">
-        <v>-0.01502669697033954</v>
+        <v>-0.008143628851214597</v>
       </c>
       <c r="F24">
-        <v>0.04874677231731474</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.004136099789583293</v>
+      </c>
+      <c r="G24">
+        <v>-0.03729517655959803</v>
+      </c>
+      <c r="H24">
+        <v>0.002527472885138129</v>
+      </c>
+      <c r="I24">
+        <v>-0.009772626637969763</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.04073433028814678</v>
+        <v>-0.04082744397147869</v>
       </c>
       <c r="C25">
-        <v>-0.0001228123158495756</v>
+        <v>0.03099067356782742</v>
       </c>
       <c r="D25">
-        <v>-0.02812477329574966</v>
+        <v>0.003404466083263706</v>
       </c>
       <c r="E25">
-        <v>-0.01826306045185262</v>
+        <v>-0.008715616926220568</v>
       </c>
       <c r="F25">
-        <v>0.05238127780882364</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.0114955602904356</v>
+      </c>
+      <c r="G25">
+        <v>-0.04807755860378182</v>
+      </c>
+      <c r="H25">
+        <v>-0.002629228270057002</v>
+      </c>
+      <c r="I25">
+        <v>-0.01767799750115855</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.0188466745537709</v>
+        <v>-0.01269713978543945</v>
       </c>
       <c r="C26">
-        <v>-0.00717838915821218</v>
+        <v>0.02261234049231087</v>
       </c>
       <c r="D26">
-        <v>-0.05307555624058406</v>
+        <v>0.007467707120697058</v>
       </c>
       <c r="E26">
-        <v>-0.003331016214134831</v>
+        <v>0.003120043780997289</v>
       </c>
       <c r="F26">
-        <v>0.03910775306601751</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.02010877251443431</v>
+      </c>
+      <c r="G26">
+        <v>-0.04439472711920061</v>
+      </c>
+      <c r="H26">
+        <v>0.03902545363633241</v>
+      </c>
+      <c r="I26">
+        <v>-0.01239028340633009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1019543514037112</v>
+        <v>-0.05765102921488146</v>
       </c>
       <c r="C27">
-        <v>0.02732075361276846</v>
+        <v>0.02202998636921585</v>
       </c>
       <c r="D27">
-        <v>-0.03991668228544037</v>
+        <v>-0.0005341526871406307</v>
       </c>
       <c r="E27">
-        <v>-0.04083648297653354</v>
+        <v>-0.02493270086304668</v>
       </c>
       <c r="F27">
-        <v>0.05193420093372728</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.002011940944791831</v>
+      </c>
+      <c r="G27">
+        <v>-0.04160753949794413</v>
+      </c>
+      <c r="H27">
+        <v>0.03648262526954592</v>
+      </c>
+      <c r="I27">
+        <v>-0.01726881549124581</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.06128669535363705</v>
+        <v>-0.0949174489098977</v>
       </c>
       <c r="C28">
-        <v>0.1051560458175036</v>
+        <v>-0.2378311260133472</v>
       </c>
       <c r="D28">
-        <v>0.1876969448377905</v>
+        <v>-0.01226597052801693</v>
       </c>
       <c r="E28">
-        <v>0.1106042994169956</v>
+        <v>0.0353430182797719</v>
       </c>
       <c r="F28">
-        <v>0.01395733196246283</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.06590843070719421</v>
+      </c>
+      <c r="G28">
+        <v>-0.01726423025343791</v>
+      </c>
+      <c r="H28">
+        <v>0.0513360303387415</v>
+      </c>
+      <c r="I28">
+        <v>-0.02787974048776556</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.02535625467319027</v>
+        <v>-0.02112387842835873</v>
       </c>
       <c r="C29">
-        <v>0.007527682116562632</v>
+        <v>0.01931509748625937</v>
       </c>
       <c r="D29">
-        <v>-0.04387951973080727</v>
+        <v>-0.005749736065271075</v>
       </c>
       <c r="E29">
-        <v>-0.03301512996145298</v>
+        <v>-0.02480642273429194</v>
       </c>
       <c r="F29">
-        <v>0.01999725121554417</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.01932900390946601</v>
+      </c>
+      <c r="G29">
+        <v>-0.03191164803066168</v>
+      </c>
+      <c r="H29">
+        <v>0.06191265919217488</v>
+      </c>
+      <c r="I29">
+        <v>-0.0176019235946007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.09714842501905727</v>
+        <v>-0.07909962814061833</v>
       </c>
       <c r="C30">
-        <v>0.04103290366676771</v>
+        <v>0.05018357225957943</v>
       </c>
       <c r="D30">
-        <v>-0.06777757269782618</v>
+        <v>0.04585466435862584</v>
       </c>
       <c r="E30">
-        <v>-0.02416924434030753</v>
+        <v>-0.03933713471654076</v>
       </c>
       <c r="F30">
-        <v>0.10572637823047</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.02274511549366987</v>
+      </c>
+      <c r="G30">
+        <v>-0.1003835601849392</v>
+      </c>
+      <c r="H30">
+        <v>0.01945592893399318</v>
+      </c>
+      <c r="I30">
+        <v>0.004638209381559787</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.05747046483994369</v>
+        <v>-0.0533083392666624</v>
       </c>
       <c r="C31">
-        <v>0.01306414669700084</v>
+        <v>0.02017176750935266</v>
       </c>
       <c r="D31">
-        <v>-0.0364178329897029</v>
+        <v>0.009763650684084245</v>
       </c>
       <c r="E31">
-        <v>0.02354228687029473</v>
+        <v>-0.02411175086220721</v>
       </c>
       <c r="F31">
-        <v>-0.02041627908966351</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01058328995381209</v>
+      </c>
+      <c r="G31">
+        <v>0.001873590686217237</v>
+      </c>
+      <c r="H31">
+        <v>0.05529951651166232</v>
+      </c>
+      <c r="I31">
+        <v>-0.03842537559718184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.05068209804098083</v>
+        <v>-0.02728202574847828</v>
       </c>
       <c r="C32">
-        <v>0.003415524625509325</v>
+        <v>0.04114718319663425</v>
       </c>
       <c r="D32">
-        <v>-0.05373629183295589</v>
+        <v>-0.011378366238418</v>
       </c>
       <c r="E32">
-        <v>-0.04002368833150659</v>
+        <v>-0.04386413073179068</v>
       </c>
       <c r="F32">
-        <v>0.08079417778976884</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.002312697456319682</v>
+      </c>
+      <c r="G32">
+        <v>-0.08762482064166344</v>
+      </c>
+      <c r="H32">
+        <v>0.008264985293503302</v>
+      </c>
+      <c r="I32">
+        <v>-0.0041760934833805</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.04657114005562296</v>
+        <v>-0.04142796557467785</v>
       </c>
       <c r="C33">
-        <v>-0.01171793789861615</v>
+        <v>0.04899721474445168</v>
       </c>
       <c r="D33">
-        <v>-0.07377343475724711</v>
+        <v>0.0237416952685803</v>
       </c>
       <c r="E33">
-        <v>-0.01769419831634736</v>
+        <v>-0.004987520858640796</v>
       </c>
       <c r="F33">
-        <v>0.07081125776630133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.006947259485274733</v>
+      </c>
+      <c r="G33">
+        <v>-0.06946791157707974</v>
+      </c>
+      <c r="H33">
+        <v>0.05137347925590826</v>
+      </c>
+      <c r="I33">
+        <v>-0.03383021204252366</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.03851423825470996</v>
+        <v>-0.03479299364881239</v>
       </c>
       <c r="C34">
-        <v>0.004062264099208027</v>
+        <v>0.03701468064476012</v>
       </c>
       <c r="D34">
-        <v>-0.03250500853188931</v>
+        <v>-0.00266084539970457</v>
       </c>
       <c r="E34">
-        <v>-0.01998659157719847</v>
+        <v>-0.02117814451641098</v>
       </c>
       <c r="F34">
-        <v>0.04146723923527623</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.0007919887512437514</v>
+      </c>
+      <c r="G34">
+        <v>-0.0386946956683467</v>
+      </c>
+      <c r="H34">
+        <v>0.005171911581825636</v>
+      </c>
+      <c r="I34">
+        <v>-0.01257464290858187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01520075745554813</v>
+        <v>-0.01720756869592239</v>
       </c>
       <c r="C36">
-        <v>0.01149254801894587</v>
+        <v>0.001480486173738924</v>
       </c>
       <c r="D36">
-        <v>-0.01196446074288908</v>
+        <v>-0.003146913377308</v>
       </c>
       <c r="E36">
-        <v>-0.01144588563521303</v>
+        <v>-0.007683416645448826</v>
       </c>
       <c r="F36">
-        <v>0.02382472041605349</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.009714754737744557</v>
+      </c>
+      <c r="G36">
+        <v>-0.02549219589455335</v>
+      </c>
+      <c r="H36">
+        <v>0.0381571227677539</v>
+      </c>
+      <c r="I36">
+        <v>-0.0229693104384008</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.02043548214224748</v>
+        <v>-0.02290729564275276</v>
       </c>
       <c r="C38">
-        <v>0.008440905528875286</v>
+        <v>0.007159348351815651</v>
       </c>
       <c r="D38">
-        <v>0.01185193407145334</v>
+        <v>-0.004847494938132276</v>
       </c>
       <c r="E38">
-        <v>-0.005447456737680091</v>
+        <v>-0.01091501109503349</v>
       </c>
       <c r="F38">
-        <v>0.01210166562770208</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.02809523301109591</v>
+      </c>
+      <c r="G38">
+        <v>-0.03656414606361063</v>
+      </c>
+      <c r="H38">
+        <v>0.02672225464055311</v>
+      </c>
+      <c r="I38">
+        <v>-0.02754174396586857</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.05538782763752538</v>
+        <v>-0.04145428500558875</v>
       </c>
       <c r="C39">
-        <v>0.002833066257442921</v>
+        <v>0.05235077347713398</v>
       </c>
       <c r="D39">
-        <v>-0.04491950723994472</v>
+        <v>0.009987196712275413</v>
       </c>
       <c r="E39">
-        <v>-0.006265163444744537</v>
+        <v>-0.01833577480203625</v>
       </c>
       <c r="F39">
-        <v>0.04160540604182959</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.01523231026689009</v>
+      </c>
+      <c r="G39">
+        <v>-0.05961777401857212</v>
+      </c>
+      <c r="H39">
+        <v>-0.003147020407357479</v>
+      </c>
+      <c r="I39">
+        <v>-0.02481227985134283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.05206629284211273</v>
+        <v>-0.04315100224662094</v>
       </c>
       <c r="C40">
-        <v>0.02195303956146537</v>
+        <v>0.03843647515734063</v>
       </c>
       <c r="D40">
-        <v>-0.0732917828043642</v>
+        <v>0.02626622505136289</v>
       </c>
       <c r="E40">
-        <v>0.008293707316199633</v>
+        <v>-0.02374251685710156</v>
       </c>
       <c r="F40">
-        <v>0.08632846225955459</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.01552757461543968</v>
+      </c>
+      <c r="G40">
+        <v>-0.08024693122084003</v>
+      </c>
+      <c r="H40">
+        <v>0.03925423890445235</v>
+      </c>
+      <c r="I40">
+        <v>-0.03118042534364427</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.007290713581999209</v>
+        <v>-0.0009935581548060285</v>
       </c>
       <c r="C41">
-        <v>-0.002430447166317619</v>
+        <v>0.002310297844293443</v>
       </c>
       <c r="D41">
-        <v>-0.02698313249637941</v>
+        <v>0.0006653332794403682</v>
       </c>
       <c r="E41">
-        <v>-0.01266566330122434</v>
+        <v>-0.005743608320645481</v>
       </c>
       <c r="F41">
-        <v>-0.009981449367721593</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.001137789258325385</v>
+      </c>
+      <c r="G41">
+        <v>-0.003568652852230621</v>
+      </c>
+      <c r="H41">
+        <v>0.05194421628913819</v>
+      </c>
+      <c r="I41">
+        <v>-0.03435822408456563</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.2974084266989739</v>
+        <v>-0.21915335427249</v>
       </c>
       <c r="C42">
-        <v>-0.8837336875240844</v>
+        <v>0.3274605294644287</v>
       </c>
       <c r="D42">
-        <v>0.1729300643923337</v>
+        <v>0.05629553961936903</v>
       </c>
       <c r="E42">
-        <v>0.2580225900537342</v>
+        <v>0.8539883105220257</v>
       </c>
       <c r="F42">
-        <v>-0.05277685744168272</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.2327306958618532</v>
+      </c>
+      <c r="G42">
+        <v>0.1761489106058177</v>
+      </c>
+      <c r="H42">
+        <v>-0.01373164914259158</v>
+      </c>
+      <c r="I42">
+        <v>0.01064835664797237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.00731975505116162</v>
+        <v>-0.003166357794722277</v>
       </c>
       <c r="C43">
-        <v>-0.0001920438189650166</v>
+        <v>0.002619825498962736</v>
       </c>
       <c r="D43">
-        <v>-0.02750811972928065</v>
+        <v>0.004057799973825152</v>
       </c>
       <c r="E43">
-        <v>-0.006420981452670015</v>
+        <v>-0.003547884612176937</v>
       </c>
       <c r="F43">
-        <v>0.01981934551662183</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.005690808397220335</v>
+      </c>
+      <c r="G43">
+        <v>-0.01467435409158055</v>
+      </c>
+      <c r="H43">
+        <v>0.04347158186893511</v>
+      </c>
+      <c r="I43">
+        <v>-0.018815279846473</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.02870902342747365</v>
+        <v>-0.01817202125218632</v>
       </c>
       <c r="C44">
-        <v>-0.005965116538681866</v>
+        <v>0.03326202355329797</v>
       </c>
       <c r="D44">
-        <v>-0.06105716486753875</v>
+        <v>0.0002810080392110979</v>
       </c>
       <c r="E44">
-        <v>-0.02266683998375612</v>
+        <v>-0.006460503272611458</v>
       </c>
       <c r="F44">
-        <v>0.1091904707350277</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.003185453667104341</v>
+      </c>
+      <c r="G44">
+        <v>-0.1104471372079234</v>
+      </c>
+      <c r="H44">
+        <v>0.09636204437110878</v>
+      </c>
+      <c r="I44">
+        <v>-0.04353530020000058</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.02795651330758244</v>
+        <v>-0.02069123185636837</v>
       </c>
       <c r="C46">
-        <v>0.005802296370516445</v>
+        <v>0.0308315792125939</v>
       </c>
       <c r="D46">
-        <v>-0.05476074711914517</v>
+        <v>0.0073161315557701</v>
       </c>
       <c r="E46">
-        <v>-0.02066804046984669</v>
+        <v>-0.02779462645874826</v>
       </c>
       <c r="F46">
-        <v>0.01520997648248645</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.02019692614868328</v>
+      </c>
+      <c r="G46">
+        <v>-0.04566566030328844</v>
+      </c>
+      <c r="H46">
+        <v>0.06639961860510388</v>
+      </c>
+      <c r="I46">
+        <v>-0.01695784655576851</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.08248228477710486</v>
+        <v>-0.07865705581779453</v>
       </c>
       <c r="C47">
-        <v>0.0167441962644178</v>
+        <v>0.03135414691152301</v>
       </c>
       <c r="D47">
-        <v>-0.03966972739948892</v>
+        <v>0.004995289379573832</v>
       </c>
       <c r="E47">
-        <v>-0.01983179886955683</v>
+        <v>-0.03310555044284202</v>
       </c>
       <c r="F47">
-        <v>-0.02877198790836966</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.003085391159899975</v>
+      </c>
+      <c r="G47">
+        <v>0.02459300778879755</v>
+      </c>
+      <c r="H47">
+        <v>0.07071487607866311</v>
+      </c>
+      <c r="I47">
+        <v>-0.02289931526307375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.01201328098964668</v>
+        <v>-0.01884727297000465</v>
       </c>
       <c r="C48">
-        <v>0.005920824302007793</v>
+        <v>0.01206463241956675</v>
       </c>
       <c r="D48">
-        <v>-0.03174026144397616</v>
+        <v>0.0003883430566813208</v>
       </c>
       <c r="E48">
-        <v>-0.0146364890548188</v>
+        <v>-0.01124218558919484</v>
       </c>
       <c r="F48">
-        <v>0.03240478758997771</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01052680801932723</v>
+      </c>
+      <c r="G48">
+        <v>-0.02852435530742206</v>
+      </c>
+      <c r="H48">
+        <v>0.03140216538935793</v>
+      </c>
+      <c r="I48">
+        <v>-0.01676945531375855</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.08104002641148852</v>
+        <v>-0.07813279300452569</v>
       </c>
       <c r="C50">
-        <v>0.0005301199379662685</v>
+        <v>0.04634598024162313</v>
       </c>
       <c r="D50">
-        <v>-0.03854978887916028</v>
+        <v>-0.006511544159298938</v>
       </c>
       <c r="E50">
-        <v>0.002241340582637956</v>
+        <v>-0.02154083416346769</v>
       </c>
       <c r="F50">
-        <v>-0.01064913302567194</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.005309874972928014</v>
+      </c>
+      <c r="G50">
+        <v>0.008391381043843101</v>
+      </c>
+      <c r="H50">
+        <v>0.0505639781723345</v>
+      </c>
+      <c r="I50">
+        <v>0.009022077019323489</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.04358392473460052</v>
+        <v>-0.03060993701091292</v>
       </c>
       <c r="C51">
-        <v>-0.006861768722370855</v>
+        <v>-0.003006317718123444</v>
       </c>
       <c r="D51">
-        <v>-0.02176762230717031</v>
+        <v>0.009844732071535784</v>
       </c>
       <c r="E51">
-        <v>0.03409096416056635</v>
+        <v>0.01081520549892417</v>
       </c>
       <c r="F51">
-        <v>0.0691399886362626</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.01840138182297096</v>
+      </c>
+      <c r="G51">
+        <v>-0.08256955533740734</v>
+      </c>
+      <c r="H51">
+        <v>0.08585801288999848</v>
+      </c>
+      <c r="I51">
+        <v>-0.04871133908731995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1154349202938545</v>
+        <v>-0.1064025477364843</v>
       </c>
       <c r="C53">
-        <v>0.01460710390846608</v>
+        <v>0.05785728759363625</v>
       </c>
       <c r="D53">
-        <v>-0.07101174485144356</v>
+        <v>0.008218993260490089</v>
       </c>
       <c r="E53">
-        <v>-0.01506820350648762</v>
+        <v>-0.05018920067097952</v>
       </c>
       <c r="F53">
-        <v>-0.06891534040328272</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.01843510078865954</v>
+      </c>
+      <c r="G53">
+        <v>0.05416126954776966</v>
+      </c>
+      <c r="H53">
+        <v>0.02727534619013007</v>
+      </c>
+      <c r="I53">
+        <v>-0.01761224412031971</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02202700321603569</v>
+        <v>-0.02421509131371751</v>
       </c>
       <c r="C54">
-        <v>0.01828879923725482</v>
+        <v>0.005388710720518865</v>
       </c>
       <c r="D54">
-        <v>-0.02658428830553742</v>
+        <v>-0.004331192251620968</v>
       </c>
       <c r="E54">
-        <v>-0.01852916427593244</v>
+        <v>-0.02894714084153752</v>
       </c>
       <c r="F54">
-        <v>0.03948980972198793</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.005061197403679711</v>
+      </c>
+      <c r="G54">
+        <v>-0.03353130347727476</v>
+      </c>
+      <c r="H54">
+        <v>0.06368481546606353</v>
+      </c>
+      <c r="I54">
+        <v>-0.02540883512591419</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.09890780346746421</v>
+        <v>-0.0889548563905873</v>
       </c>
       <c r="C55">
-        <v>0.01010876592058362</v>
+        <v>0.05303384718065862</v>
       </c>
       <c r="D55">
-        <v>-0.0209786894080802</v>
+        <v>-0.009492115264180543</v>
       </c>
       <c r="E55">
-        <v>-0.04707787390379546</v>
+        <v>-0.03591087170129623</v>
       </c>
       <c r="F55">
-        <v>-0.03128334042002189</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.0126047795332572</v>
+      </c>
+      <c r="G55">
+        <v>0.04187496929234179</v>
+      </c>
+      <c r="H55">
+        <v>0.03611380284509372</v>
+      </c>
+      <c r="I55">
+        <v>0.01856584353715314</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1533096781879212</v>
+        <v>-0.150081199146485</v>
       </c>
       <c r="C56">
-        <v>0.06750811860876114</v>
+        <v>0.05237699442687868</v>
       </c>
       <c r="D56">
-        <v>-0.0547742291231743</v>
+        <v>0.005407461490880062</v>
       </c>
       <c r="E56">
-        <v>-0.03883334900919228</v>
+        <v>-0.08548772975910425</v>
       </c>
       <c r="F56">
-        <v>-0.1163409497421011</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.03683393752385949</v>
+      </c>
+      <c r="G56">
+        <v>0.09738814608264607</v>
+      </c>
+      <c r="H56">
+        <v>-0.02066770384267603</v>
+      </c>
+      <c r="I56">
+        <v>0.02054844881125517</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.0677523524420854</v>
+        <v>-0.05739876311065378</v>
       </c>
       <c r="C57">
-        <v>0.0137296166106852</v>
+        <v>0.0240327872063703</v>
       </c>
       <c r="D57">
-        <v>-0.04753453771568007</v>
+        <v>0.02029273824814516</v>
       </c>
       <c r="E57">
-        <v>0.01090125826349067</v>
+        <v>0.005047499817740337</v>
       </c>
       <c r="F57">
-        <v>0.06231682608717139</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.03094858809905842</v>
+      </c>
+      <c r="G57">
+        <v>-0.06079256209432904</v>
+      </c>
+      <c r="H57">
+        <v>0.02878908130556987</v>
+      </c>
+      <c r="I57">
+        <v>-0.02639420081478517</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.2104411977275951</v>
+        <v>-0.1915446418204587</v>
       </c>
       <c r="C58">
-        <v>0.009567576594573499</v>
+        <v>0.1179462291609906</v>
       </c>
       <c r="D58">
-        <v>-0.1358792148164738</v>
+        <v>0.1063459873296694</v>
       </c>
       <c r="E58">
-        <v>-0.01064083171706383</v>
+        <v>0.01229080339003034</v>
       </c>
       <c r="F58">
-        <v>0.2760607420415956</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.0008171860761786102</v>
+      </c>
+      <c r="G58">
+        <v>-0.3747432126978885</v>
+      </c>
+      <c r="H58">
+        <v>0.3622932935112196</v>
+      </c>
+      <c r="I58">
+        <v>0.3513290744496722</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.06421421867292502</v>
+        <v>-0.09866844761417425</v>
       </c>
       <c r="C59">
-        <v>0.1207493348725391</v>
+        <v>-0.2091628308006462</v>
       </c>
       <c r="D59">
-        <v>0.1325643264059652</v>
+        <v>0.006380708047934584</v>
       </c>
       <c r="E59">
-        <v>0.07224365692051668</v>
+        <v>0.006053174040975413</v>
       </c>
       <c r="F59">
-        <v>0.02614402579108113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.03822062560324864</v>
+      </c>
+      <c r="G59">
+        <v>-0.04372828863566064</v>
+      </c>
+      <c r="H59">
+        <v>0.02317384387153018</v>
+      </c>
+      <c r="I59">
+        <v>-0.02219078300010004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1867403624813051</v>
+        <v>-0.1998367216020056</v>
       </c>
       <c r="C60">
-        <v>0.06739156671302744</v>
+        <v>-0.01696009199099888</v>
       </c>
       <c r="D60">
-        <v>-0.006751683862947628</v>
+        <v>0.05649260540313938</v>
       </c>
       <c r="E60">
-        <v>0.08021117577476806</v>
+        <v>-0.02213900947645588</v>
       </c>
       <c r="F60">
-        <v>0.1518541523338471</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.001884093844196265</v>
+      </c>
+      <c r="G60">
+        <v>-0.2076438405068023</v>
+      </c>
+      <c r="H60">
+        <v>-0.3420846411655</v>
+      </c>
+      <c r="I60">
+        <v>-0.06523760580948099</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.03122316610762508</v>
+        <v>-0.03362339773237186</v>
       </c>
       <c r="C61">
-        <v>0.00175374403563338</v>
+        <v>0.03503337464419271</v>
       </c>
       <c r="D61">
-        <v>-0.01968665194251305</v>
+        <v>0.001582073614613347</v>
       </c>
       <c r="E61">
-        <v>-0.01644891859931837</v>
+        <v>-0.01497026330433695</v>
       </c>
       <c r="F61">
-        <v>0.03926218367755143</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.01077568696319742</v>
+      </c>
+      <c r="G61">
+        <v>-0.03908716136992596</v>
+      </c>
+      <c r="H61">
+        <v>-0.01129685205008614</v>
+      </c>
+      <c r="I61">
+        <v>-0.01883611524666128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.02934585373392927</v>
+        <v>-0.0242857312502983</v>
       </c>
       <c r="C63">
-        <v>0.01270437249533241</v>
+        <v>0.02439665430343926</v>
       </c>
       <c r="D63">
-        <v>-0.04080916454080868</v>
+        <v>0.00322075527389732</v>
       </c>
       <c r="E63">
-        <v>-0.01549827686555206</v>
+        <v>-0.01677632751190711</v>
       </c>
       <c r="F63">
-        <v>0.04920665409523061</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.011947719841674</v>
+      </c>
+      <c r="G63">
+        <v>-0.03031371919376736</v>
+      </c>
+      <c r="H63">
+        <v>0.04977108735506095</v>
+      </c>
+      <c r="I63">
+        <v>0.002052473750995263</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.04764758077527368</v>
+        <v>-0.04770760178488258</v>
       </c>
       <c r="C64">
-        <v>0.002762732693052642</v>
+        <v>0.04371428294557154</v>
       </c>
       <c r="D64">
-        <v>-0.04609360229785041</v>
+        <v>-0.007666855571347857</v>
       </c>
       <c r="E64">
-        <v>-0.05717399600058662</v>
+        <v>-0.02400192207543207</v>
       </c>
       <c r="F64">
-        <v>0.04949795625552932</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.009043377017581809</v>
+      </c>
+      <c r="G64">
+        <v>-0.04255783074936308</v>
+      </c>
+      <c r="H64">
+        <v>0.03914129532641063</v>
+      </c>
+      <c r="I64">
+        <v>-0.05889467767994529</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.002664325591449858</v>
+        <v>-0.03157219555153883</v>
       </c>
       <c r="C65">
-        <v>-0.001812876273071815</v>
+        <v>0.01820898252813085</v>
       </c>
       <c r="D65">
-        <v>0.00112398737042654</v>
+        <v>-0.001566164674828296</v>
       </c>
       <c r="E65">
-        <v>0.00417921522890222</v>
+        <v>-0.005839528844388957</v>
       </c>
       <c r="F65">
-        <v>0.000986913435956416</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.01599938195023858</v>
+      </c>
+      <c r="G65">
+        <v>-0.0130646962703254</v>
+      </c>
+      <c r="H65">
+        <v>-0.03206945032693821</v>
+      </c>
+      <c r="I65">
+        <v>0.003061108928104323</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.05212388228643488</v>
+        <v>-0.04871795095976399</v>
       </c>
       <c r="C66">
-        <v>0.01599761810534378</v>
+        <v>0.06053763701706782</v>
       </c>
       <c r="D66">
-        <v>-0.06009992322895627</v>
+        <v>0.01808491313495118</v>
       </c>
       <c r="E66">
-        <v>-0.02840567118698443</v>
+        <v>-0.04224177925004548</v>
       </c>
       <c r="F66">
-        <v>0.08223261422525316</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.02223463108767793</v>
+      </c>
+      <c r="G66">
+        <v>-0.07270818473057532</v>
+      </c>
+      <c r="H66">
+        <v>-0.0166590399012605</v>
+      </c>
+      <c r="I66">
+        <v>-0.01304593774351133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.03877307783996321</v>
+        <v>-0.0421816517834725</v>
       </c>
       <c r="C67">
-        <v>0.01724151808406081</v>
+        <v>-0.003346777386141305</v>
       </c>
       <c r="D67">
-        <v>0.02258169647525172</v>
+        <v>-0.001152773152680464</v>
       </c>
       <c r="E67">
-        <v>0.008128229170246597</v>
+        <v>-0.01218509861597081</v>
       </c>
       <c r="F67">
-        <v>0.01889108011577129</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.02341585903339089</v>
+      </c>
+      <c r="G67">
+        <v>-0.03046516962895692</v>
+      </c>
+      <c r="H67">
+        <v>0.005993552736402624</v>
+      </c>
+      <c r="I67">
+        <v>-0.04520730889256874</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.07555678818075227</v>
+        <v>-0.1005147305736278</v>
       </c>
       <c r="C68">
-        <v>0.1117319292157408</v>
+        <v>-0.2329934933097277</v>
       </c>
       <c r="D68">
-        <v>0.1874252749910232</v>
+        <v>0.000113608662375084</v>
       </c>
       <c r="E68">
-        <v>0.1046657936266556</v>
+        <v>0.03620888059364139</v>
       </c>
       <c r="F68">
-        <v>-0.01432128066404691</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.03784203859791338</v>
+      </c>
+      <c r="G68">
+        <v>0.003821285133406007</v>
+      </c>
+      <c r="H68">
+        <v>0.03907440339979607</v>
+      </c>
+      <c r="I68">
+        <v>0.01770467966008448</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.0699032031170207</v>
+        <v>-0.06570984264642281</v>
       </c>
       <c r="C69">
-        <v>0.02242370367962318</v>
+        <v>0.02585927316777647</v>
       </c>
       <c r="D69">
-        <v>-0.0250192583604082</v>
+        <v>0.007138771918681959</v>
       </c>
       <c r="E69">
-        <v>-0.001275454546087038</v>
+        <v>-0.03414429718734208</v>
       </c>
       <c r="F69">
-        <v>-0.01314424734410173</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.007075370119847742</v>
+      </c>
+      <c r="G69">
+        <v>0.009810994683744708</v>
+      </c>
+      <c r="H69">
+        <v>0.04783369726299283</v>
+      </c>
+      <c r="I69">
+        <v>-0.02132005106163883</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.07314979325031006</v>
+        <v>-0.09781310740426037</v>
       </c>
       <c r="C71">
-        <v>0.1365818618982722</v>
+        <v>-0.2521146177713335</v>
       </c>
       <c r="D71">
-        <v>0.234082569853246</v>
+        <v>0.002889937682063854</v>
       </c>
       <c r="E71">
-        <v>0.1771055226738548</v>
+        <v>0.04940984602225956</v>
       </c>
       <c r="F71">
-        <v>0.02294350232684365</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.07176162699160904</v>
+      </c>
+      <c r="G71">
+        <v>-0.01912402846376063</v>
+      </c>
+      <c r="H71">
+        <v>0.02695869662225308</v>
+      </c>
+      <c r="I71">
+        <v>-0.01319229059281219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1249225679682828</v>
+        <v>-0.1298223642544282</v>
       </c>
       <c r="C72">
-        <v>0.07273591242268063</v>
+        <v>0.06394601684679371</v>
       </c>
       <c r="D72">
-        <v>-0.04884965208511542</v>
+        <v>0.01849117882469603</v>
       </c>
       <c r="E72">
-        <v>-0.02387267540275144</v>
+        <v>-0.0999777558793311</v>
       </c>
       <c r="F72">
-        <v>0.05716358471560784</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.01589941205185477</v>
+      </c>
+      <c r="G72">
+        <v>-0.09981879341568832</v>
+      </c>
+      <c r="H72">
+        <v>-0.08131152893858525</v>
+      </c>
+      <c r="I72">
+        <v>-0.02372995234435527</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2862192258062607</v>
+        <v>-0.2828575236628414</v>
       </c>
       <c r="C73">
-        <v>0.1101913853859413</v>
+        <v>-0.01674238184004162</v>
       </c>
       <c r="D73">
-        <v>0.03685037875844677</v>
+        <v>0.09365718617362651</v>
       </c>
       <c r="E73">
-        <v>0.1216793011315753</v>
+        <v>0.0001121363275200161</v>
       </c>
       <c r="F73">
-        <v>0.2654422373800684</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.03414874814443133</v>
+      </c>
+      <c r="G73">
+        <v>-0.2931184287467236</v>
+      </c>
+      <c r="H73">
+        <v>-0.5202934755323319</v>
+      </c>
+      <c r="I73">
+        <v>-0.04003796581136445</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1405355183709789</v>
+        <v>-0.1360302564973365</v>
       </c>
       <c r="C74">
-        <v>0.02137417170950752</v>
+        <v>0.06493209039669237</v>
       </c>
       <c r="D74">
-        <v>-0.0475714238809831</v>
+        <v>0.01104302215559475</v>
       </c>
       <c r="E74">
-        <v>-0.02013836780524579</v>
+        <v>-0.05848616388799877</v>
       </c>
       <c r="F74">
-        <v>-0.06015459903646542</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.01553515472399911</v>
+      </c>
+      <c r="G74">
+        <v>0.07559394494927395</v>
+      </c>
+      <c r="H74">
+        <v>-0.01309141173829773</v>
+      </c>
+      <c r="I74">
+        <v>0.007823409211126318</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2197694736811947</v>
+        <v>-0.2357549194145395</v>
       </c>
       <c r="C75">
-        <v>0.0804751924143905</v>
+        <v>0.06989359068409957</v>
       </c>
       <c r="D75">
-        <v>-0.09732749983109611</v>
+        <v>0.03364219398121453</v>
       </c>
       <c r="E75">
-        <v>-0.0167206975602453</v>
+        <v>-0.124975103501159</v>
       </c>
       <c r="F75">
-        <v>-0.1497177393653125</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.05273880062935121</v>
+      </c>
+      <c r="G75">
+        <v>0.1444487067869483</v>
+      </c>
+      <c r="H75">
+        <v>0.01512989979855619</v>
+      </c>
+      <c r="I75">
+        <v>-0.006033477965070927</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2519194008234188</v>
+        <v>-0.2476520041752414</v>
       </c>
       <c r="C76">
-        <v>0.09930357085037497</v>
+        <v>0.07712808396091546</v>
       </c>
       <c r="D76">
-        <v>-0.05550565969848843</v>
+        <v>-0.007808299925944329</v>
       </c>
       <c r="E76">
-        <v>-0.0768132456101087</v>
+        <v>-0.1553004452139752</v>
       </c>
       <c r="F76">
-        <v>-0.1603985471452787</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.03493172085138584</v>
+      </c>
+      <c r="G76">
+        <v>0.1978123504310535</v>
+      </c>
+      <c r="H76">
+        <v>-0.002175948005295144</v>
+      </c>
+      <c r="I76">
+        <v>0.07510335088537944</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.138826567169581</v>
+        <v>-0.09693962830593138</v>
       </c>
       <c r="C77">
-        <v>-0.04509063189304092</v>
+        <v>0.08263102962814825</v>
       </c>
       <c r="D77">
-        <v>-0.07112381342326027</v>
+        <v>0.01516475643848273</v>
       </c>
       <c r="E77">
-        <v>-0.01083784094644499</v>
+        <v>0.04741742482967286</v>
       </c>
       <c r="F77">
-        <v>0.2157265916851561</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.000314702425311504</v>
+      </c>
+      <c r="G77">
+        <v>-0.1520654624990768</v>
+      </c>
+      <c r="H77">
+        <v>0.2212588444263653</v>
+      </c>
+      <c r="I77">
+        <v>0.07464531229754151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.07877146095957735</v>
+        <v>-0.05677511658313866</v>
       </c>
       <c r="C78">
-        <v>-0.02288866240114526</v>
+        <v>0.06918063036691369</v>
       </c>
       <c r="D78">
-        <v>-0.08115691179595402</v>
+        <v>0.00319434662516523</v>
       </c>
       <c r="E78">
-        <v>-0.05001399737741558</v>
+        <v>-0.01837797536756337</v>
       </c>
       <c r="F78">
-        <v>0.04290360901484079</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.02281717221986762</v>
+      </c>
+      <c r="G78">
+        <v>-0.06954639066007091</v>
+      </c>
+      <c r="H78">
+        <v>0.03493598504274671</v>
+      </c>
+      <c r="I78">
+        <v>-0.0196991117728695</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.1302333641575957</v>
+        <v>-0.1501439593744312</v>
       </c>
       <c r="C80">
-        <v>-0.1090619290804631</v>
+        <v>0.04335155143343666</v>
       </c>
       <c r="D80">
-        <v>0.5037030612413423</v>
+        <v>-0.973342731986756</v>
       </c>
       <c r="E80">
-        <v>-0.8217819465539444</v>
+        <v>0.03517952891869908</v>
       </c>
       <c r="F80">
-        <v>0.06836734048994372</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.009670868964690544</v>
+      </c>
+      <c r="G80">
+        <v>-0.07135635319038078</v>
+      </c>
+      <c r="H80">
+        <v>-0.02914994824340314</v>
+      </c>
+      <c r="I80">
+        <v>-0.04294473227304697</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1632005942223998</v>
+        <v>-0.1762194993363224</v>
       </c>
       <c r="C81">
-        <v>0.05922726181666178</v>
+        <v>0.05540200459565191</v>
       </c>
       <c r="D81">
-        <v>-0.05531827521965389</v>
+        <v>0.007288622457179046</v>
       </c>
       <c r="E81">
-        <v>-0.03116347950633816</v>
+        <v>-0.1040719612711217</v>
       </c>
       <c r="F81">
-        <v>-0.1475554225439603</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.03198979890170491</v>
+      </c>
+      <c r="G81">
+        <v>0.1391893799986355</v>
+      </c>
+      <c r="H81">
+        <v>0.02298335921096337</v>
+      </c>
+      <c r="I81">
+        <v>0.04687618870613008</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.0571096368541975</v>
+        <v>-0.04555258104372358</v>
       </c>
       <c r="C83">
-        <v>-0.04960142186934476</v>
+        <v>0.04657881329059184</v>
       </c>
       <c r="D83">
-        <v>-0.06621210707342853</v>
+        <v>0.01344295744575579</v>
       </c>
       <c r="E83">
-        <v>-0.008720576954368443</v>
+        <v>0.0153308108491625</v>
       </c>
       <c r="F83">
-        <v>0.0373239046389579</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.007811030240947434</v>
+      </c>
+      <c r="G83">
+        <v>-0.05093604346853062</v>
+      </c>
+      <c r="H83">
+        <v>0.03374460574269991</v>
+      </c>
+      <c r="I83">
+        <v>-0.02568948228282535</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2195995674715265</v>
+        <v>-0.2310063785449736</v>
       </c>
       <c r="C85">
-        <v>0.04153055690747038</v>
+        <v>0.102665177785856</v>
       </c>
       <c r="D85">
-        <v>-0.08052870399293816</v>
+        <v>0.02021048942566357</v>
       </c>
       <c r="E85">
-        <v>-0.06389616577557591</v>
+        <v>-0.1103028459087432</v>
       </c>
       <c r="F85">
-        <v>-0.1862833473782843</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.05890021240780364</v>
+      </c>
+      <c r="G85">
+        <v>0.1880006954062712</v>
+      </c>
+      <c r="H85">
+        <v>0.0163433422075847</v>
+      </c>
+      <c r="I85">
+        <v>0.02650451394719967</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.02342296683191481</v>
+        <v>-0.01689997041804176</v>
       </c>
       <c r="C86">
-        <v>-0.009751312991045204</v>
+        <v>0.04230184791094494</v>
       </c>
       <c r="D86">
-        <v>-0.06008810045520113</v>
+        <v>0.004851797675267694</v>
       </c>
       <c r="E86">
-        <v>-0.01937751802981182</v>
+        <v>-0.02272930749523329</v>
       </c>
       <c r="F86">
-        <v>0.0839181389841351</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02513672223214915</v>
+      </c>
+      <c r="G86">
+        <v>-0.08591475799772497</v>
+      </c>
+      <c r="H86">
+        <v>0.0585136330931784</v>
+      </c>
+      <c r="I86">
+        <v>0.001276487049678914</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01221301311670022</v>
+        <v>-0.02267551545766523</v>
       </c>
       <c r="C87">
-        <v>0.02895259431477724</v>
+        <v>-0.009270096140402036</v>
       </c>
       <c r="D87">
-        <v>0.04291690220889204</v>
+        <v>-0.002912920937361364</v>
       </c>
       <c r="E87">
-        <v>0.02686380181981595</v>
+        <v>0.00113833903452088</v>
       </c>
       <c r="F87">
-        <v>0.104497430952492</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.01017003590645238</v>
+      </c>
+      <c r="G87">
+        <v>-0.1076637181235081</v>
+      </c>
+      <c r="H87">
+        <v>0.01046644236302391</v>
+      </c>
+      <c r="I87">
+        <v>0.01507790448448881</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.01467390078617382</v>
+        <v>-0.03230756051317319</v>
       </c>
       <c r="C88">
-        <v>0.008757907775283758</v>
+        <v>-0.004858499267687322</v>
       </c>
       <c r="D88">
-        <v>0.005291752504428626</v>
+        <v>-0.005044412048841266</v>
       </c>
       <c r="E88">
-        <v>-0.02198416887733569</v>
+        <v>-0.01215357497444918</v>
       </c>
       <c r="F88">
-        <v>-0.01146452959989409</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.007661298585201363</v>
+      </c>
+      <c r="G88">
+        <v>0.009514825006004972</v>
+      </c>
+      <c r="H88">
+        <v>0.02314897093429259</v>
+      </c>
+      <c r="I88">
+        <v>-0.06164167441234541</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.1157620889853022</v>
+        <v>-0.1663019185478872</v>
       </c>
       <c r="C89">
-        <v>0.1347186924810668</v>
+        <v>-0.3761211750255747</v>
       </c>
       <c r="D89">
-        <v>0.2627709777226112</v>
+        <v>0.02560354845460013</v>
       </c>
       <c r="E89">
-        <v>0.1934574364267062</v>
+        <v>0.0717546391062137</v>
       </c>
       <c r="F89">
-        <v>0.006712925379270119</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.06172650407645179</v>
+      </c>
+      <c r="G89">
+        <v>-0.002513134527946783</v>
+      </c>
+      <c r="H89">
+        <v>0.09954510230249053</v>
+      </c>
+      <c r="I89">
+        <v>0.004218309898249045</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.09702656414956184</v>
+        <v>-0.1177371313765102</v>
       </c>
       <c r="C90">
-        <v>0.133017423373772</v>
+        <v>-0.3137717801034345</v>
       </c>
       <c r="D90">
-        <v>0.2602731412294101</v>
+        <v>0.003523410623779732</v>
       </c>
       <c r="E90">
-        <v>0.1276162311915838</v>
+        <v>0.05903794223505992</v>
       </c>
       <c r="F90">
-        <v>0.005903770350298899</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.05552996979338941</v>
+      </c>
+      <c r="G90">
+        <v>0.02440774163005521</v>
+      </c>
+      <c r="H90">
+        <v>0.06281745608879533</v>
+      </c>
+      <c r="I90">
+        <v>0.007859455589766754</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2816481677335198</v>
+        <v>-0.2724814056226471</v>
       </c>
       <c r="C91">
-        <v>0.05128547445897061</v>
+        <v>0.1217556633424963</v>
       </c>
       <c r="D91">
-        <v>-0.1178576737686714</v>
+        <v>0.02567188943400743</v>
       </c>
       <c r="E91">
-        <v>-0.07577984783053394</v>
+        <v>-0.1284939618924878</v>
       </c>
       <c r="F91">
-        <v>-0.2522460566719166</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.03735849625087798</v>
+      </c>
+      <c r="G91">
+        <v>0.2538030392397202</v>
+      </c>
+      <c r="H91">
+        <v>0.03122745406913597</v>
+      </c>
+      <c r="I91">
+        <v>0.07486188768822478</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.1396964566763583</v>
+        <v>-0.2026357440070402</v>
       </c>
       <c r="C92">
-        <v>0.09550051198740529</v>
+        <v>-0.3093941147869279</v>
       </c>
       <c r="D92">
-        <v>0.2937356054716472</v>
+        <v>-0.01554525024800943</v>
       </c>
       <c r="E92">
-        <v>0.12721313661944</v>
+        <v>0.04638868135589015</v>
       </c>
       <c r="F92">
-        <v>-0.02896428710495611</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.137102221265809</v>
+      </c>
+      <c r="G92">
+        <v>0.09337700457434557</v>
+      </c>
+      <c r="H92">
+        <v>0.194862197696035</v>
+      </c>
+      <c r="I92">
+        <v>0.01545846931482184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.09799063727785026</v>
+        <v>-0.1447665952415953</v>
       </c>
       <c r="C93">
-        <v>0.1277689066040139</v>
+        <v>-0.3748189390787648</v>
       </c>
       <c r="D93">
-        <v>0.320635081839505</v>
+        <v>0.01156056066419656</v>
       </c>
       <c r="E93">
-        <v>0.1730396452946335</v>
+        <v>0.09717325652546543</v>
       </c>
       <c r="F93">
-        <v>-0.05129462815263773</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.1030686145612914</v>
+      </c>
+      <c r="G93">
+        <v>0.0456408400518595</v>
+      </c>
+      <c r="H93">
+        <v>0.01897868699771607</v>
+      </c>
+      <c r="I93">
+        <v>-0.02940226880148953</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2694355058516517</v>
+        <v>-0.2955200027550394</v>
       </c>
       <c r="C94">
-        <v>0.09942105466767699</v>
+        <v>0.03865343200776565</v>
       </c>
       <c r="D94">
-        <v>-0.00433765344018603</v>
+        <v>0.03829149021247906</v>
       </c>
       <c r="E94">
-        <v>-0.01823228927109488</v>
+        <v>-0.1358112242335563</v>
       </c>
       <c r="F94">
-        <v>-0.237885838061771</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.07313698079622692</v>
+      </c>
+      <c r="G94">
+        <v>0.2749372691627688</v>
+      </c>
+      <c r="H94">
+        <v>0.01112635233302616</v>
+      </c>
+      <c r="I94">
+        <v>0.2217676582843991</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1389697910617278</v>
+        <v>-0.115723694728362</v>
       </c>
       <c r="C95">
-        <v>-0.02100284876531062</v>
+        <v>0.09475091221854574</v>
       </c>
       <c r="D95">
-        <v>-0.1999610740304323</v>
+        <v>0.08619974901198078</v>
       </c>
       <c r="E95">
-        <v>-0.03994520452700884</v>
+        <v>-0.06362086871231043</v>
       </c>
       <c r="F95">
-        <v>-0.4331776294921754</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.05421026442238307</v>
+      </c>
+      <c r="G95">
+        <v>0.0918983667201342</v>
+      </c>
+      <c r="H95">
+        <v>0.1838850850875333</v>
+      </c>
+      <c r="I95">
+        <v>-0.8622008787357494</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2210842432848946</v>
+        <v>-0.2203684862428461</v>
       </c>
       <c r="C98">
-        <v>0.05191628202643177</v>
+        <v>-0.01871869522574509</v>
       </c>
       <c r="D98">
-        <v>0.004157170552733979</v>
+        <v>0.06553481348287084</v>
       </c>
       <c r="E98">
-        <v>0.09222012363967046</v>
+        <v>0.0002128174685993621</v>
       </c>
       <c r="F98">
-        <v>0.09213540719655168</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.04912739607647303</v>
+      </c>
+      <c r="G98">
+        <v>-0.211609729067028</v>
+      </c>
+      <c r="H98">
+        <v>-0.3746469034369394</v>
+      </c>
+      <c r="I98">
+        <v>-0.04257737289050206</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3597,130 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.002936521049854702</v>
+        <v>-0.01411130723266596</v>
       </c>
       <c r="C101">
-        <v>0.01414901257225243</v>
+        <v>0.02572712291124295</v>
       </c>
       <c r="D101">
-        <v>-0.06339901081615137</v>
+        <v>-0.000394820532659505</v>
       </c>
       <c r="E101">
-        <v>-0.04254675239328121</v>
+        <v>-0.02990118907961893</v>
       </c>
       <c r="F101">
-        <v>0.02642292494024551</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.02435239519436583</v>
+      </c>
+      <c r="G101">
+        <v>-0.07545200455421089</v>
+      </c>
+      <c r="H101">
+        <v>0.1164675124582939</v>
+      </c>
+      <c r="I101">
+        <v>0.02199540960344665</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.08691317924389326</v>
+        <v>-0.1099885341855888</v>
       </c>
       <c r="C102">
-        <v>0.01603244380067359</v>
+        <v>0.04462510101265104</v>
       </c>
       <c r="D102">
-        <v>-0.04460479178822791</v>
+        <v>0.002036735810354442</v>
       </c>
       <c r="E102">
-        <v>-0.04646418597142812</v>
+        <v>-0.04731840463492178</v>
       </c>
       <c r="F102">
-        <v>-0.09048370441509204</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.04052181181619405</v>
+      </c>
+      <c r="G102">
+        <v>0.1061220249042603</v>
+      </c>
+      <c r="H102">
+        <v>0.01471907307759983</v>
+      </c>
+      <c r="I102">
+        <v>0.00875127349004326</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.0163724278410238</v>
+        <v>-0.02469419316587503</v>
       </c>
       <c r="C103">
-        <v>0.009106837183117517</v>
+        <v>0.01070290287222947</v>
       </c>
       <c r="D103">
-        <v>-0.003124044588086444</v>
+        <v>-0.007633373183946197</v>
       </c>
       <c r="E103">
-        <v>-0.007045988457339405</v>
+        <v>-0.01641461145364178</v>
       </c>
       <c r="F103">
-        <v>-0.02090675992645577</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.006572422159528267</v>
+      </c>
+      <c r="G103">
+        <v>0.01949340878113872</v>
+      </c>
+      <c r="H103">
+        <v>0.01671185416651804</v>
+      </c>
+      <c r="I103">
+        <v>-0.00101497111880688</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.07016692025585823</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.1522133218617216</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.0269759168032357</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.3004693260256716</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.924979222930948</v>
+      </c>
+      <c r="G104">
+        <v>-0.02316640252588132</v>
+      </c>
+      <c r="H104">
+        <v>0.01101107771994143</v>
+      </c>
+      <c r="I104">
+        <v>-0.08109682277436954</v>
       </c>
     </row>
   </sheetData>
